--- a/question_select/answer_point.xlsx
+++ b/question_select/answer_point.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BD8680-786C-4507-83C4-3FA81FB61684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D403A594-8928-43BE-8A6E-BD0531349D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="answer point" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'answer point'!$F$1:$F$256</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$H$1:$H$269</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4807" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4801" uniqueCount="1090">
   <si>
     <t>id</t>
   </si>
@@ -4058,6 +4059,14 @@
   </si>
   <si>
     <t>answer point</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/40471</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calendar could return a locale specific calendar.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4509,11 +4518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L258"/>
+  <dimension ref="A1:L256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5385,7 +5394,7 @@
         <v>72</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>73</v>
+        <v>1088</v>
       </c>
       <c r="D24" s="5">
         <v>3361</v>
@@ -6343,19 +6352,28 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>20844735</v>
+        <v>2469244</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>695</v>
+      </c>
+      <c r="G51" t="s">
+        <v>696</v>
+      </c>
+      <c r="H51" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -6375,10 +6393,10 @@
         <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>695</v>
+        <v>779</v>
       </c>
       <c r="G52" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H52" t="s">
         <v>54</v>
@@ -6401,7 +6419,7 @@
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>779</v>
+        <v>157</v>
       </c>
       <c r="G53" t="s">
         <v>697</v>
@@ -6412,28 +6430,40 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2469244</v>
+        <v>1796275</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D54">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G54" t="s">
-        <v>697</v>
+        <v>161</v>
       </c>
       <c r="H54" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" t="s">
+        <v>893</v>
+      </c>
+      <c r="K54" t="s">
+        <v>44</v>
+      </c>
+      <c r="L54" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -6441,7 +6471,7 @@
         <v>1796275</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>159</v>
@@ -6453,10 +6483,10 @@
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G55" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
@@ -6465,36 +6495,36 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>893</v>
+        <v>164</v>
       </c>
       <c r="K55" t="s">
         <v>44</v>
       </c>
       <c r="L55" t="s">
-        <v>894</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1796275</v>
+        <v>13112038</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D56">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G56" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
@@ -6503,13 +6533,13 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>164</v>
+        <v>895</v>
       </c>
       <c r="K56" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="L56" t="s">
-        <v>1085</v>
+        <v>896</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -6529,10 +6559,10 @@
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G57" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H57" t="s">
         <v>14</v>
@@ -6541,36 +6571,36 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="K57" t="s">
         <v>60</v>
       </c>
       <c r="L57" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>13112038</v>
+        <v>8875680</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D58">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G58" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H58" t="s">
         <v>14</v>
@@ -6579,13 +6609,13 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>897</v>
+        <v>174</v>
       </c>
       <c r="K58" t="s">
-        <v>60</v>
+        <v>899</v>
       </c>
       <c r="L58" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -6605,10 +6635,10 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G59" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
@@ -6617,13 +6647,13 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>174</v>
+        <v>903</v>
       </c>
       <c r="K59" t="s">
-        <v>899</v>
+        <v>60</v>
       </c>
       <c r="L59" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -6643,51 +6673,51 @@
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G60" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" t="s">
-        <v>903</v>
-      </c>
-      <c r="K60" t="s">
-        <v>60</v>
-      </c>
-      <c r="L60" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>8875680</v>
+        <v>141284</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D61">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="E61" t="s">
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>178</v>
+        <v>906</v>
       </c>
       <c r="G61" t="s">
-        <v>179</v>
+        <v>698</v>
       </c>
       <c r="H61" t="s">
-        <v>905</v>
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
+        <v>186</v>
+      </c>
+      <c r="K61" t="s">
+        <v>92</v>
+      </c>
+      <c r="L61" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -6707,10 +6737,10 @@
         <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>906</v>
+        <v>185</v>
       </c>
       <c r="G62" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
@@ -6722,10 +6752,10 @@
         <v>186</v>
       </c>
       <c r="K62" t="s">
-        <v>92</v>
+        <v>900</v>
       </c>
       <c r="L62" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -6745,7 +6775,7 @@
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G63" t="s">
         <v>699</v>
@@ -6760,7 +6790,7 @@
         <v>186</v>
       </c>
       <c r="K63" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="L63" t="s">
         <v>908</v>
@@ -6768,25 +6798,25 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>141284</v>
+        <v>7317579</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>780</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D64">
-        <v>431</v>
+        <v>43</v>
       </c>
       <c r="E64" t="s">
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G64" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H64" t="s">
         <v>14</v>
@@ -6795,13 +6825,13 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>186</v>
+        <v>909</v>
       </c>
       <c r="K64" t="s">
-        <v>899</v>
+        <v>210</v>
       </c>
       <c r="L64" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -6809,10 +6839,10 @@
         <v>7317579</v>
       </c>
       <c r="B65" t="s">
-        <v>780</v>
+        <v>188</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D65">
         <v>43</v>
@@ -6821,10 +6851,10 @@
         <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G65" t="s">
-        <v>700</v>
+        <v>195</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
@@ -6833,13 +6863,13 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>909</v>
+        <v>195</v>
       </c>
       <c r="K65" t="s">
-        <v>210</v>
+        <v>901</v>
       </c>
       <c r="L65" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -6859,10 +6889,10 @@
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
@@ -6871,36 +6901,33 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K66" t="s">
-        <v>901</v>
-      </c>
-      <c r="L66" t="s">
-        <v>911</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>7317579</v>
+        <v>10434736</v>
       </c>
       <c r="B67" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D67">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="G67" t="s">
-        <v>197</v>
+        <v>395</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -6909,10 +6936,13 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="K67" t="s">
-        <v>24</v>
+        <v>210</v>
+      </c>
+      <c r="L67" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -6932,10 +6962,10 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G68" t="s">
-        <v>395</v>
+        <v>701</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
@@ -6944,36 +6974,36 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>209</v>
+        <v>914</v>
       </c>
       <c r="K68" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L68" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>10434736</v>
+        <v>15989309</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D69">
         <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G69" t="s">
-        <v>701</v>
+        <v>438</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -6982,13 +7012,10 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>914</v>
+        <v>28</v>
       </c>
       <c r="K69" t="s">
-        <v>213</v>
-      </c>
-      <c r="L69" t="s">
-        <v>915</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -7008,7 +7035,7 @@
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G70" t="s">
         <v>438</v>
@@ -7020,10 +7047,10 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="K70" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -7043,22 +7070,13 @@
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G71" t="s">
-        <v>438</v>
+        <v>702</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" t="s">
-        <v>14</v>
-      </c>
-      <c r="J71" t="s">
-        <v>219</v>
-      </c>
-      <c r="K71" t="s">
-        <v>220</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -7078,48 +7096,57 @@
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G72" t="s">
         <v>702</v>
       </c>
       <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
         <v>54</v>
+      </c>
+      <c r="J72" t="s">
+        <v>223</v>
+      </c>
+      <c r="K72" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>15989309</v>
+        <v>28322833</v>
       </c>
       <c r="B73" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D73">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G73" t="s">
-        <v>702</v>
+        <v>227</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K73" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -7139,10 +7166,10 @@
         <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G74" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
@@ -7151,7 +7178,7 @@
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K74" t="s">
         <v>228</v>
@@ -7159,25 +7186,25 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>28322833</v>
+        <v>5102570</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D75">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E75" t="s">
         <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>229</v>
+        <v>786</v>
       </c>
       <c r="G75" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
@@ -7186,10 +7213,13 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>230</v>
+        <v>916</v>
       </c>
       <c r="K75" t="s">
-        <v>228</v>
+        <v>44</v>
+      </c>
+      <c r="L75" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -7197,7 +7227,7 @@
         <v>5102570</v>
       </c>
       <c r="B76" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>232</v>
@@ -7209,51 +7239,51 @@
         <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>786</v>
+        <v>236</v>
       </c>
       <c r="G76" t="s">
-        <v>234</v>
+        <v>703</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" t="s">
-        <v>916</v>
-      </c>
-      <c r="K76" t="s">
-        <v>44</v>
-      </c>
-      <c r="L76" t="s">
-        <v>917</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>5102570</v>
+        <v>2986296</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D77">
-        <v>31</v>
+        <v>313</v>
       </c>
       <c r="E77" t="s">
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G77" t="s">
-        <v>703</v>
+        <v>202</v>
       </c>
       <c r="H77" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" t="s">
+        <v>919</v>
+      </c>
+      <c r="K77" t="s">
+        <v>241</v>
+      </c>
+      <c r="L77" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -7273,10 +7303,10 @@
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G78" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="H78" t="s">
         <v>14</v>
@@ -7285,13 +7315,13 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>919</v>
+        <v>243</v>
       </c>
       <c r="K78" t="s">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="L78" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -7311,25 +7341,13 @@
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G79" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" t="s">
-        <v>14</v>
-      </c>
-      <c r="J79" t="s">
-        <v>243</v>
-      </c>
-      <c r="K79" t="s">
-        <v>82</v>
-      </c>
-      <c r="L79" t="s">
-        <v>918</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -7349,10 +7367,10 @@
         <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G80" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="H80" t="s">
         <v>54</v>
@@ -7360,28 +7378,40 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2986296</v>
+        <v>8249173</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D81">
-        <v>313</v>
+        <v>52</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G81" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H81" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
+        <v>921</v>
+      </c>
+      <c r="K81" t="s">
+        <v>250</v>
+      </c>
+      <c r="L81" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -7401,10 +7431,10 @@
         <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G82" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H82" t="s">
         <v>14</v>
@@ -7413,24 +7443,24 @@
         <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>921</v>
+        <v>252</v>
       </c>
       <c r="K82" t="s">
         <v>250</v>
       </c>
       <c r="L82" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>8249173</v>
+        <v>35359112</v>
       </c>
       <c r="B83" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D83">
         <v>52</v>
@@ -7439,10 +7469,10 @@
         <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G83" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H83" t="s">
         <v>14</v>
@@ -7451,13 +7481,13 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K83" t="s">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="L83" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -7477,10 +7507,10 @@
         <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G84" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H84" t="s">
         <v>14</v>
@@ -7489,33 +7519,33 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K84" t="s">
         <v>60</v>
       </c>
       <c r="L84" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>35359112</v>
+        <v>25593768</v>
       </c>
       <c r="B85" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D85">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>257</v>
+        <v>1089</v>
       </c>
       <c r="G85" t="s">
         <v>258</v>
@@ -7530,7 +7560,7 @@
         <v>258</v>
       </c>
       <c r="K85" t="s">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="L85" t="s">
         <v>925</v>
@@ -7538,25 +7568,25 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>25593768</v>
+        <v>45231351</v>
       </c>
       <c r="B86" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G86" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="H86" t="s">
         <v>14</v>
@@ -7565,13 +7595,13 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K86" t="s">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="L86" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -7591,10 +7621,10 @@
         <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G87" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H87" t="s">
         <v>14</v>
@@ -7603,13 +7633,13 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K87" t="s">
         <v>124</v>
       </c>
       <c r="L87" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -7629,89 +7659,89 @@
         <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G88" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" t="s">
-        <v>267</v>
-      </c>
-      <c r="K88" t="s">
-        <v>124</v>
-      </c>
-      <c r="L88" t="s">
-        <v>927</v>
+        <v>803</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>45231351</v>
+        <v>23379623</v>
       </c>
       <c r="B89" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D89">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>268</v>
+        <v>704</v>
       </c>
       <c r="G89" t="s">
-        <v>269</v>
+        <v>705</v>
       </c>
       <c r="H89" t="s">
-        <v>803</v>
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>928</v>
+      </c>
+      <c r="J89" t="s">
+        <v>929</v>
+      </c>
+      <c r="K89" t="s">
+        <v>930</v>
+      </c>
+      <c r="L89" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>23379623</v>
+        <v>2504141</v>
       </c>
       <c r="B90" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D90">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>704</v>
+        <v>276</v>
       </c>
       <c r="G90" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H90" t="s">
         <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>928</v>
+        <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="K90" t="s">
-        <v>930</v>
+        <v>92</v>
       </c>
       <c r="L90" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -7731,10 +7761,10 @@
         <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G91" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H91" t="s">
         <v>14</v>
@@ -7743,36 +7773,36 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>932</v>
+        <v>277</v>
       </c>
       <c r="K91" t="s">
-        <v>92</v>
+        <v>899</v>
       </c>
       <c r="L91" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>2504141</v>
+        <v>29937600</v>
       </c>
       <c r="B92" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D92">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G92" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H92" t="s">
         <v>14</v>
@@ -7781,13 +7811,13 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>277</v>
+        <v>935</v>
       </c>
       <c r="K92" t="s">
-        <v>899</v>
+        <v>16</v>
       </c>
       <c r="L92" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -7807,10 +7837,10 @@
         <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G93" t="s">
-        <v>708</v>
+        <v>284</v>
       </c>
       <c r="H93" t="s">
         <v>14</v>
@@ -7819,51 +7849,39 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>935</v>
+        <v>284</v>
       </c>
       <c r="K93" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="L93" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>29937600</v>
+        <v>6863182</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D94">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" t="s">
-        <v>285</v>
+        <v>20</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>938</v>
       </c>
       <c r="G94" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" t="s">
-        <v>14</v>
-      </c>
-      <c r="J94" t="s">
-        <v>284</v>
-      </c>
-      <c r="K94" t="s">
-        <v>124</v>
-      </c>
-      <c r="L94" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -7882,8 +7900,8 @@
       <c r="E95" t="s">
         <v>20</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>938</v>
+      <c r="F95" s="8" t="s">
+        <v>939</v>
       </c>
       <c r="G95" t="s">
         <v>289</v>
@@ -7909,7 +7927,7 @@
         <v>20</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G96" t="s">
         <v>289</v>
@@ -7934,14 +7952,14 @@
       <c r="E97" t="s">
         <v>20</v>
       </c>
-      <c r="F97" s="8" t="s">
-        <v>940</v>
+      <c r="F97" t="s">
+        <v>290</v>
       </c>
       <c r="G97" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H97" t="s">
-        <v>941</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -7961,36 +7979,48 @@
         <v>20</v>
       </c>
       <c r="F98" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H98" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" t="s">
+        <v>942</v>
+      </c>
+      <c r="K98" t="s">
+        <v>250</v>
+      </c>
+      <c r="L98" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>6863182</v>
+        <v>51445382</v>
       </c>
       <c r="B99" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D99">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="E99" t="s">
         <v>20</v>
       </c>
       <c r="F99" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G99" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H99" t="s">
         <v>14</v>
@@ -7999,13 +8029,13 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="K99" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="L99" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -8025,10 +8055,10 @@
         <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G100" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H100" t="s">
         <v>14</v>
@@ -8037,36 +8067,36 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>944</v>
+        <v>299</v>
       </c>
       <c r="K100" t="s">
         <v>92</v>
       </c>
       <c r="L100" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>51445382</v>
+        <v>4232231</v>
       </c>
       <c r="B101" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D101">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E101" t="s">
         <v>20</v>
       </c>
       <c r="F101" t="s">
-        <v>298</v>
+        <v>784</v>
       </c>
       <c r="G101" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H101" t="s">
         <v>14</v>
@@ -8075,13 +8105,13 @@
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>299</v>
+        <v>783</v>
       </c>
       <c r="K101" t="s">
         <v>92</v>
       </c>
       <c r="L101" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -8101,10 +8131,10 @@
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G102" t="s">
-        <v>303</v>
+        <v>709</v>
       </c>
       <c r="H102" t="s">
         <v>14</v>
@@ -8113,36 +8143,36 @@
         <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>783</v>
+        <v>948</v>
       </c>
       <c r="K102" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L102" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>4232231</v>
+        <v>28147654</v>
       </c>
       <c r="B103" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D103">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>785</v>
+        <v>308</v>
       </c>
       <c r="G103" t="s">
-        <v>709</v>
+        <v>309</v>
       </c>
       <c r="H103" t="s">
         <v>14</v>
@@ -8151,13 +8181,13 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="K103" t="s">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="L103" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -8177,10 +8207,10 @@
         <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G104" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H104" t="s">
         <v>14</v>
@@ -8189,13 +8219,13 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>950</v>
+        <v>311</v>
       </c>
       <c r="K104" t="s">
         <v>250</v>
       </c>
       <c r="L104" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -8215,7 +8245,7 @@
         <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G105" t="s">
         <v>311</v>
@@ -8227,71 +8257,59 @@
         <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K105" t="s">
-        <v>250</v>
-      </c>
-      <c r="L105" t="s">
-        <v>952</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>28147654</v>
+        <v>5846183</v>
       </c>
       <c r="B106" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D106">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F106" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G106" t="s">
-        <v>311</v>
+        <v>687</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" t="s">
-        <v>14</v>
-      </c>
-      <c r="J106" t="s">
-        <v>313</v>
-      </c>
-      <c r="K106" t="s">
-        <v>314</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>5846183</v>
+        <v>7903503</v>
       </c>
       <c r="B107" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D107">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E107" t="s">
         <v>20</v>
       </c>
       <c r="F107" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G107" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="H107" t="s">
         <v>54</v>
@@ -8314,7 +8332,7 @@
         <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>320</v>
+        <v>711</v>
       </c>
       <c r="G108" t="s">
         <v>710</v>
@@ -8340,7 +8358,7 @@
         <v>20</v>
       </c>
       <c r="F109" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G109" t="s">
         <v>710</v>
@@ -8351,28 +8369,40 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>7903503</v>
+        <v>10977992</v>
       </c>
       <c r="B110" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D110">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="E110" t="s">
         <v>20</v>
       </c>
       <c r="F110" t="s">
-        <v>712</v>
+        <v>323</v>
       </c>
       <c r="G110" t="s">
-        <v>710</v>
+        <v>324</v>
       </c>
       <c r="H110" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+      <c r="J110" t="s">
+        <v>324</v>
+      </c>
+      <c r="K110" t="s">
+        <v>44</v>
+      </c>
+      <c r="L110" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -8392,7 +8422,7 @@
         <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G111" t="s">
         <v>324</v>
@@ -8430,7 +8460,7 @@
         <v>20</v>
       </c>
       <c r="F112" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G112" t="s">
         <v>324</v>
@@ -8442,13 +8472,13 @@
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>324</v>
+        <v>955</v>
       </c>
       <c r="K112" t="s">
-        <v>44</v>
+        <v>956</v>
       </c>
       <c r="L112" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -8468,7 +8498,7 @@
         <v>20</v>
       </c>
       <c r="F113" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G113" t="s">
         <v>324</v>
@@ -8480,36 +8510,36 @@
         <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>955</v>
+        <v>324</v>
       </c>
       <c r="K113" t="s">
-        <v>956</v>
+        <v>44</v>
       </c>
       <c r="L113" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>10977992</v>
+        <v>10487104</v>
       </c>
       <c r="B114" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D114">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="E114" t="s">
         <v>20</v>
       </c>
       <c r="F114" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G114" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H114" t="s">
         <v>14</v>
@@ -8518,13 +8548,13 @@
         <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>324</v>
+        <v>957</v>
       </c>
       <c r="K114" t="s">
         <v>44</v>
       </c>
       <c r="L114" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -8544,10 +8574,10 @@
         <v>20</v>
       </c>
       <c r="F115" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G115" t="s">
-        <v>331</v>
+        <v>713</v>
       </c>
       <c r="H115" t="s">
         <v>14</v>
@@ -8556,36 +8586,33 @@
         <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>957</v>
+        <v>714</v>
       </c>
       <c r="K115" t="s">
-        <v>44</v>
-      </c>
-      <c r="L115" t="s">
-        <v>958</v>
+        <v>333</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>10487104</v>
+        <v>31869391</v>
       </c>
       <c r="B116" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D116">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>332</v>
+        <v>960</v>
       </c>
       <c r="G116" t="s">
-        <v>713</v>
+        <v>337</v>
       </c>
       <c r="H116" t="s">
         <v>14</v>
@@ -8594,10 +8621,13 @@
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>714</v>
+        <v>959</v>
       </c>
       <c r="K116" t="s">
-        <v>333</v>
+        <v>92</v>
+      </c>
+      <c r="L116" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -8605,7 +8635,7 @@
         <v>31869391</v>
       </c>
       <c r="B117" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>335</v>
@@ -8617,7 +8647,7 @@
         <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="G117" t="s">
         <v>337</v>
@@ -8629,51 +8659,39 @@
         <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="K117" t="s">
         <v>92</v>
       </c>
       <c r="L117" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>31869391</v>
+        <v>17328077</v>
       </c>
       <c r="B118" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D118">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>962</v>
+        <v>342</v>
       </c>
       <c r="G118" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
-      </c>
-      <c r="I118" t="s">
-        <v>14</v>
-      </c>
-      <c r="J118" t="s">
-        <v>964</v>
-      </c>
-      <c r="K118" t="s">
-        <v>92</v>
-      </c>
-      <c r="L118" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -8681,7 +8699,7 @@
         <v>17328077</v>
       </c>
       <c r="B119" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>341</v>
@@ -8693,39 +8711,51 @@
         <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>342</v>
+        <v>715</v>
       </c>
       <c r="G119" t="s">
-        <v>343</v>
+        <v>716</v>
       </c>
       <c r="H119" t="s">
-        <v>965</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>17328077</v>
+        <v>5689517</v>
       </c>
       <c r="B120" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F120" t="s">
-        <v>715</v>
+        <v>967</v>
       </c>
       <c r="G120" t="s">
-        <v>716</v>
+        <v>348</v>
       </c>
       <c r="H120" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120" t="s">
+        <v>966</v>
+      </c>
+      <c r="K120" t="s">
+        <v>31</v>
+      </c>
+      <c r="L120" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -8745,51 +8775,39 @@
         <v>20</v>
       </c>
       <c r="F121" t="s">
-        <v>967</v>
+        <v>787</v>
       </c>
       <c r="G121" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
-      </c>
-      <c r="I121" t="s">
-        <v>14</v>
-      </c>
-      <c r="J121" t="s">
-        <v>966</v>
-      </c>
-      <c r="K121" t="s">
-        <v>31</v>
-      </c>
-      <c r="L121" t="s">
-        <v>968</v>
+        <v>877</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>5689517</v>
+        <v>23148729</v>
       </c>
       <c r="B122" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="D122">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E122" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G122" t="s">
-        <v>350</v>
+        <v>717</v>
       </c>
       <c r="H122" t="s">
-        <v>877</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -8809,10 +8827,10 @@
         <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>788</v>
+        <v>360</v>
       </c>
       <c r="G123" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H123" t="s">
         <v>54</v>
@@ -8820,28 +8838,40 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>23148729</v>
+        <v>25602382</v>
       </c>
       <c r="B124" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D124">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F124" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G124" t="s">
-        <v>718</v>
+        <v>364</v>
       </c>
       <c r="H124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
         <v>54</v>
+      </c>
+      <c r="J124" t="s">
+        <v>364</v>
+      </c>
+      <c r="K124" t="s">
+        <v>38</v>
+      </c>
+      <c r="L124" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -8849,7 +8879,7 @@
         <v>25602382</v>
       </c>
       <c r="B125" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>362</v>
@@ -8861,25 +8891,25 @@
         <v>20</v>
       </c>
       <c r="F125" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G125" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H125" t="s">
         <v>14</v>
       </c>
       <c r="I125" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K125" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L125" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -8899,25 +8929,13 @@
         <v>20</v>
       </c>
       <c r="F126" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G126" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
-      </c>
-      <c r="I126" t="s">
-        <v>14</v>
-      </c>
-      <c r="J126" t="s">
-        <v>367</v>
-      </c>
-      <c r="K126" t="s">
-        <v>31</v>
-      </c>
-      <c r="L126" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -8937,13 +8955,25 @@
         <v>20</v>
       </c>
       <c r="F127" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="G127" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H127" t="s">
-        <v>969</v>
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J127" t="s">
+        <v>367</v>
+      </c>
+      <c r="K127" t="s">
+        <v>31</v>
+      </c>
+      <c r="L127" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -8963,10 +8993,10 @@
         <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G128" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H128" t="s">
         <v>14</v>
@@ -8975,74 +9005,62 @@
         <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K128" t="s">
         <v>31</v>
       </c>
       <c r="L128" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>25602382</v>
+        <v>7758020</v>
       </c>
       <c r="B129" t="s">
-        <v>365</v>
+        <v>719</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="D129">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E129" t="s">
         <v>20</v>
       </c>
       <c r="F129" t="s">
-        <v>376</v>
+        <v>720</v>
       </c>
       <c r="G129" t="s">
-        <v>369</v>
+        <v>721</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
-      </c>
-      <c r="I129" t="s">
-        <v>14</v>
-      </c>
-      <c r="J129" t="s">
-        <v>369</v>
-      </c>
-      <c r="K129" t="s">
-        <v>31</v>
-      </c>
-      <c r="L129" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>7758020</v>
+        <v>7991770</v>
       </c>
       <c r="B130" t="s">
-        <v>719</v>
+        <v>381</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D130">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E130" t="s">
         <v>20</v>
       </c>
       <c r="F130" t="s">
-        <v>720</v>
+        <v>383</v>
       </c>
       <c r="G130" t="s">
-        <v>721</v>
+        <v>43</v>
       </c>
       <c r="H130" t="s">
         <v>969</v>
@@ -9065,13 +9083,25 @@
         <v>20</v>
       </c>
       <c r="F131" t="s">
-        <v>383</v>
+        <v>1076</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="H131" t="s">
-        <v>969</v>
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" t="s">
+        <v>385</v>
+      </c>
+      <c r="K131" t="s">
+        <v>82</v>
+      </c>
+      <c r="L131" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -9091,7 +9121,7 @@
         <v>20</v>
       </c>
       <c r="F132" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="G132" t="s">
         <v>385</v>
@@ -9114,25 +9144,25 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>7991770</v>
+        <v>17151547</v>
       </c>
       <c r="B133" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D133">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>1077</v>
+        <v>980</v>
       </c>
       <c r="G133" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H133" t="s">
         <v>14</v>
@@ -9141,13 +9171,13 @@
         <v>14</v>
       </c>
       <c r="J133" t="s">
-        <v>385</v>
+        <v>981</v>
       </c>
       <c r="K133" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="L133" t="s">
-        <v>979</v>
+        <v>898</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -9167,10 +9197,10 @@
         <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>980</v>
+        <v>390</v>
       </c>
       <c r="G134" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H134" t="s">
         <v>14</v>
@@ -9179,36 +9209,36 @@
         <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="K134" t="s">
         <v>60</v>
       </c>
       <c r="L134" t="s">
-        <v>898</v>
+        <v>983</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>17151547</v>
+        <v>9648811</v>
       </c>
       <c r="B135" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D135">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F135" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G135" t="s">
-        <v>391</v>
+        <v>722</v>
       </c>
       <c r="H135" t="s">
         <v>14</v>
@@ -9217,36 +9247,36 @@
         <v>14</v>
       </c>
       <c r="J135" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="K135" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="L135" t="s">
-        <v>983</v>
+        <v>912</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>9648811</v>
+        <v>19419805</v>
       </c>
       <c r="B136" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D136">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E136" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G136" t="s">
-        <v>722</v>
+        <v>399</v>
       </c>
       <c r="H136" t="s">
         <v>14</v>
@@ -9255,13 +9285,13 @@
         <v>14</v>
       </c>
       <c r="J136" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="K136" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="L136" t="s">
-        <v>912</v>
+        <v>986</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -9272,7 +9302,7 @@
         <v>396</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D137">
         <v>14</v>
@@ -9281,10 +9311,10 @@
         <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G137" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H137" t="s">
         <v>14</v>
@@ -9293,13 +9323,13 @@
         <v>14</v>
       </c>
       <c r="J137" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="K137" t="s">
         <v>60</v>
       </c>
       <c r="L137" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -9319,25 +9349,13 @@
         <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G138" t="s">
         <v>402</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
-      </c>
-      <c r="I138" t="s">
-        <v>14</v>
-      </c>
-      <c r="J138" t="s">
-        <v>989</v>
-      </c>
-      <c r="K138" t="s">
-        <v>60</v>
-      </c>
-      <c r="L138" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -9357,39 +9375,51 @@
         <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G139" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H139" t="s">
-        <v>988</v>
+        <v>803</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>19419805</v>
+        <v>10656471</v>
       </c>
       <c r="B140" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>400</v>
+        <v>758</v>
       </c>
       <c r="D140">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F140" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G140" t="s">
-        <v>399</v>
+        <v>723</v>
       </c>
       <c r="H140" t="s">
-        <v>803</v>
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>54</v>
+      </c>
+      <c r="J140" t="s">
+        <v>408</v>
+      </c>
+      <c r="K140" t="s">
+        <v>409</v>
+      </c>
+      <c r="L140" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -9400,7 +9430,7 @@
         <v>405</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>758</v>
+        <v>406</v>
       </c>
       <c r="D141">
         <v>52</v>
@@ -9409,86 +9439,86 @@
         <v>20</v>
       </c>
       <c r="F141" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G141" t="s">
         <v>723</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
-      </c>
-      <c r="I141" t="s">
         <v>54</v>
-      </c>
-      <c r="J141" t="s">
-        <v>408</v>
-      </c>
-      <c r="K141" t="s">
-        <v>409</v>
-      </c>
-      <c r="L141" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>10656471</v>
+        <v>24986945</v>
       </c>
       <c r="B142" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D142">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E142" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G142" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H142" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
         <v>54</v>
+      </c>
+      <c r="J142" t="s">
+        <v>991</v>
+      </c>
+      <c r="K142" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>24986945</v>
+        <v>1747040</v>
       </c>
       <c r="B143" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D143">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F143" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G143" t="s">
-        <v>724</v>
+        <v>418</v>
       </c>
       <c r="H143" t="s">
         <v>14</v>
       </c>
       <c r="I143" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="K143" t="s">
-        <v>220</v>
+        <v>82</v>
+      </c>
+      <c r="L143" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -9508,10 +9538,10 @@
         <v>20</v>
       </c>
       <c r="F144" t="s">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="G144" t="s">
-        <v>418</v>
+        <v>726</v>
       </c>
       <c r="H144" t="s">
         <v>14</v>
@@ -9520,36 +9550,36 @@
         <v>14</v>
       </c>
       <c r="J144" t="s">
-        <v>996</v>
+        <v>685</v>
       </c>
       <c r="K144" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="L144" t="s">
-        <v>1086</v>
+        <v>857</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>1747040</v>
+        <v>5208133</v>
       </c>
       <c r="B145" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D145">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="E145" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>725</v>
+        <v>421</v>
       </c>
       <c r="G145" t="s">
-        <v>726</v>
+        <v>422</v>
       </c>
       <c r="H145" t="s">
         <v>14</v>
@@ -9558,13 +9588,10 @@
         <v>14</v>
       </c>
       <c r="J145" t="s">
-        <v>685</v>
+        <v>422</v>
       </c>
       <c r="K145" t="s">
-        <v>44</v>
-      </c>
-      <c r="L145" t="s">
-        <v>857</v>
+        <v>217</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -9572,7 +9599,7 @@
         <v>5208133</v>
       </c>
       <c r="B146" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>420</v>
@@ -9584,10 +9611,10 @@
         <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G146" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H146" t="s">
         <v>14</v>
@@ -9596,7 +9623,7 @@
         <v>14</v>
       </c>
       <c r="J146" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K146" t="s">
         <v>217</v>
@@ -9619,22 +9646,13 @@
         <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G147" t="s">
-        <v>425</v>
+        <v>727</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
-      </c>
-      <c r="I147" t="s">
-        <v>14</v>
-      </c>
-      <c r="J147" t="s">
-        <v>425</v>
-      </c>
-      <c r="K147" t="s">
-        <v>217</v>
+        <v>769</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
@@ -9654,39 +9672,51 @@
         <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G148" t="s">
-        <v>727</v>
+        <v>425</v>
       </c>
       <c r="H148" t="s">
-        <v>769</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>5208133</v>
+        <v>3708931</v>
       </c>
       <c r="B149" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D149">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G149" t="s">
-        <v>425</v>
+        <v>728</v>
       </c>
       <c r="H149" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>14</v>
+      </c>
+      <c r="J149" t="s">
+        <v>998</v>
+      </c>
+      <c r="K149" t="s">
+        <v>60</v>
+      </c>
+      <c r="L149" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -9706,10 +9736,10 @@
         <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G150" t="s">
-        <v>728</v>
+        <v>433</v>
       </c>
       <c r="H150" t="s">
         <v>14</v>
@@ -9718,13 +9748,13 @@
         <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="K150" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="L150" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
@@ -9744,10 +9774,10 @@
         <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G151" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H151" t="s">
         <v>14</v>
@@ -9756,36 +9786,36 @@
         <v>14</v>
       </c>
       <c r="J151" t="s">
-        <v>1000</v>
+        <v>431</v>
       </c>
       <c r="K151" t="s">
         <v>124</v>
       </c>
       <c r="L151" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>3708931</v>
+        <v>3089969</v>
       </c>
       <c r="B152" t="s">
-        <v>428</v>
+        <v>729</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D152">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E152" t="s">
         <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G152" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="H152" t="s">
         <v>14</v>
@@ -9794,13 +9824,13 @@
         <v>14</v>
       </c>
       <c r="J152" t="s">
-        <v>431</v>
+        <v>1004</v>
       </c>
       <c r="K152" t="s">
         <v>124</v>
       </c>
       <c r="L152" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -9808,7 +9838,7 @@
         <v>3089969</v>
       </c>
       <c r="B153" t="s">
-        <v>729</v>
+        <v>435</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>436</v>
@@ -9820,25 +9850,13 @@
         <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G153" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
-      </c>
-      <c r="I153" t="s">
-        <v>14</v>
-      </c>
-      <c r="J153" t="s">
-        <v>1004</v>
-      </c>
-      <c r="K153" t="s">
-        <v>124</v>
-      </c>
-      <c r="L153" t="s">
-        <v>1003</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
@@ -9858,10 +9876,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G154" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H154" t="s">
         <v>54</v>
@@ -9884,13 +9902,22 @@
         <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G155" t="s">
         <v>438</v>
       </c>
       <c r="H155" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>14</v>
+      </c>
+      <c r="J155" t="s">
+        <v>438</v>
+      </c>
+      <c r="K155" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -9910,10 +9937,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G156" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="H156" t="s">
         <v>14</v>
@@ -9922,7 +9949,7 @@
         <v>14</v>
       </c>
       <c r="J156" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="K156" t="s">
         <v>314</v>
@@ -9930,101 +9957,104 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>3089969</v>
+        <v>32552307</v>
       </c>
       <c r="B157" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="D157">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F157" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G157" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H157" t="s">
         <v>14</v>
       </c>
       <c r="I157" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J157" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K157" t="s">
-        <v>314</v>
+        <v>38</v>
+      </c>
+      <c r="L157" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>32552307</v>
+        <v>6757868</v>
       </c>
       <c r="B158" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D158">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E158" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G158" t="s">
-        <v>447</v>
+        <v>730</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
-      </c>
-      <c r="I158" t="s">
         <v>54</v>
-      </c>
-      <c r="J158" t="s">
-        <v>447</v>
-      </c>
-      <c r="K158" t="s">
-        <v>38</v>
-      </c>
-      <c r="L158" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>6757868</v>
+        <v>22486997</v>
       </c>
       <c r="B159" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D159">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G159" t="s">
-        <v>730</v>
+        <v>454</v>
       </c>
       <c r="H159" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>14</v>
+      </c>
+      <c r="J159" t="s">
+        <v>454</v>
+      </c>
+      <c r="K159" t="s">
+        <v>60</v>
+      </c>
+      <c r="L159" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
@@ -10044,7 +10074,7 @@
         <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G160" t="s">
         <v>454</v>
@@ -10059,10 +10089,10 @@
         <v>454</v>
       </c>
       <c r="K160" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="L160" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -10082,10 +10112,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G161" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H161" t="s">
         <v>14</v>
@@ -10094,13 +10124,13 @@
         <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K161" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="L161" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -10120,7 +10150,7 @@
         <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G162" t="s">
         <v>457</v>
@@ -10132,77 +10162,77 @@
         <v>14</v>
       </c>
       <c r="J162" t="s">
-        <v>457</v>
+        <v>1009</v>
       </c>
       <c r="K162" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="L162" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>22486997</v>
+        <v>11564352</v>
       </c>
       <c r="B163" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D163">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F163" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G163" t="s">
-        <v>457</v>
+        <v>723</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
-      </c>
-      <c r="I163" t="s">
-        <v>14</v>
-      </c>
-      <c r="J163" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K163" t="s">
-        <v>16</v>
-      </c>
-      <c r="L163" t="s">
-        <v>1008</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>11564352</v>
+        <v>420223</v>
       </c>
       <c r="B164" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D164">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="E164" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G164" t="s">
-        <v>723</v>
+        <v>465</v>
       </c>
       <c r="H164" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>14</v>
+      </c>
+      <c r="J164" t="s">
+        <v>465</v>
+      </c>
+      <c r="K164" t="s">
+        <v>60</v>
+      </c>
+      <c r="L164" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -10222,10 +10252,10 @@
         <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G165" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H165" t="s">
         <v>14</v>
@@ -10234,51 +10264,42 @@
         <v>14</v>
       </c>
       <c r="J165" t="s">
-        <v>465</v>
+        <v>1013</v>
       </c>
       <c r="K165" t="s">
-        <v>60</v>
-      </c>
-      <c r="L165" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A166">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="5">
         <v>420223</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="5" t="s">
         <v>462</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="5">
         <v>97</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F166" t="s">
-        <v>466</v>
-      </c>
-      <c r="G166" t="s">
-        <v>467</v>
-      </c>
-      <c r="H166" t="s">
-        <v>14</v>
-      </c>
-      <c r="I166" t="s">
-        <v>14</v>
-      </c>
-      <c r="J166" t="s">
-        <v>1013</v>
-      </c>
-      <c r="K166" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F166" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>420223</v>
       </c>
@@ -10295,10 +10316,10 @@
         <v>11</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>468</v>
+        <v>1012</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H167" s="5" t="s">
         <v>877</v>
@@ -10308,33 +10329,30 @@
       <c r="K167" s="5"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A168" s="5">
-        <v>420223</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>462</v>
+      <c r="A168">
+        <v>11488754</v>
+      </c>
+      <c r="B168" t="s">
+        <v>470</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="D168" s="5">
-        <v>97</v>
-      </c>
-      <c r="E168" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D168">
+        <v>17</v>
+      </c>
+      <c r="E168" t="s">
         <v>11</v>
       </c>
-      <c r="F168" s="5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G168" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="H168" s="5" t="s">
+      <c r="F168" t="s">
+        <v>472</v>
+      </c>
+      <c r="G168" t="s">
+        <v>473</v>
+      </c>
+      <c r="H168" t="s">
         <v>877</v>
       </c>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5"/>
-      <c r="K168" s="5"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
@@ -10353,10 +10371,10 @@
         <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G169" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H169" t="s">
         <v>877</v>
@@ -10364,28 +10382,40 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>11488754</v>
+        <v>6883715</v>
       </c>
       <c r="B170" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D170">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F170" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G170" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H170" t="s">
-        <v>877</v>
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>14</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K170" t="s">
+        <v>44</v>
+      </c>
+      <c r="L170" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -10405,10 +10435,10 @@
         <v>20</v>
       </c>
       <c r="F171" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G171" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H171" t="s">
         <v>14</v>
@@ -10417,13 +10447,13 @@
         <v>14</v>
       </c>
       <c r="J171" t="s">
-        <v>1016</v>
+        <v>481</v>
       </c>
       <c r="K171" t="s">
         <v>44</v>
       </c>
       <c r="L171" t="s">
-        <v>1017</v>
+        <v>992</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -10443,10 +10473,10 @@
         <v>20</v>
       </c>
       <c r="F172" t="s">
-        <v>480</v>
+        <v>993</v>
       </c>
       <c r="G172" t="s">
-        <v>481</v>
+        <v>418</v>
       </c>
       <c r="H172" t="s">
         <v>14</v>
@@ -10455,36 +10485,36 @@
         <v>14</v>
       </c>
       <c r="J172" t="s">
-        <v>481</v>
+        <v>418</v>
       </c>
       <c r="K172" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="L172" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>6883715</v>
+        <v>5764065</v>
       </c>
       <c r="B173" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D173">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E173" t="s">
         <v>20</v>
       </c>
       <c r="F173" t="s">
-        <v>993</v>
+        <v>485</v>
       </c>
       <c r="G173" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="H173" t="s">
         <v>14</v>
@@ -10493,13 +10523,13 @@
         <v>14</v>
       </c>
       <c r="J173" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="K173" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="L173" t="s">
-        <v>994</v>
+        <v>843</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
@@ -10519,10 +10549,10 @@
         <v>20</v>
       </c>
       <c r="F174" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G174" t="s">
-        <v>486</v>
+        <v>52</v>
       </c>
       <c r="H174" t="s">
         <v>14</v>
@@ -10531,36 +10561,36 @@
         <v>14</v>
       </c>
       <c r="J174" t="s">
-        <v>486</v>
+        <v>52</v>
       </c>
       <c r="K174" t="s">
         <v>29</v>
       </c>
       <c r="L174" t="s">
-        <v>843</v>
+        <v>978</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>5764065</v>
+        <v>11051205</v>
       </c>
       <c r="B175" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D175">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="E175" t="s">
         <v>20</v>
       </c>
       <c r="F175" t="s">
-        <v>487</v>
+        <v>731</v>
       </c>
       <c r="G175" t="s">
-        <v>52</v>
+        <v>732</v>
       </c>
       <c r="H175" t="s">
         <v>14</v>
@@ -10569,86 +10599,83 @@
         <v>14</v>
       </c>
       <c r="J175" t="s">
-        <v>52</v>
+        <v>1019</v>
       </c>
       <c r="K175" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="L175" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>11051205</v>
-      </c>
-      <c r="B176" t="s">
-        <v>488</v>
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="5">
+        <v>16234448</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="D176">
-        <v>192</v>
-      </c>
-      <c r="E176" t="s">
-        <v>20</v>
-      </c>
-      <c r="F176" t="s">
-        <v>731</v>
-      </c>
-      <c r="G176" t="s">
-        <v>732</v>
-      </c>
-      <c r="H176" t="s">
-        <v>14</v>
-      </c>
-      <c r="I176" t="s">
-        <v>14</v>
-      </c>
-      <c r="J176" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K176" t="s">
-        <v>119</v>
-      </c>
-      <c r="L176" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="5">
-        <v>16234448</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="D176" s="5">
+        <v>37</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J176" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>4016091</v>
+      </c>
+      <c r="B177" t="s">
+        <v>495</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="D177" s="5">
-        <v>37</v>
-      </c>
-      <c r="E177" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D177">
+        <v>31</v>
+      </c>
+      <c r="E177" t="s">
         <v>11</v>
       </c>
-      <c r="F177" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="G177" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="H177" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I177" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J177" s="5" t="s">
-        <v>1020</v>
-      </c>
-      <c r="K177" s="5" t="s">
-        <v>270</v>
+      <c r="F177" t="s">
+        <v>497</v>
+      </c>
+      <c r="G177" t="s">
+        <v>498</v>
+      </c>
+      <c r="H177" t="s">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>14</v>
+      </c>
+      <c r="J177" t="s">
+        <v>498</v>
+      </c>
+      <c r="K177" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -10668,10 +10695,10 @@
         <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G178" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H178" t="s">
         <v>14</v>
@@ -10680,7 +10707,7 @@
         <v>14</v>
       </c>
       <c r="J178" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K178" t="s">
         <v>217</v>
@@ -10688,37 +10715,40 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>4016091</v>
+        <v>4108604</v>
       </c>
       <c r="B179" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D179">
+        <v>134</v>
+      </c>
+      <c r="E179" t="s">
+        <v>20</v>
+      </c>
+      <c r="F179" t="s">
+        <v>503</v>
+      </c>
+      <c r="G179" t="s">
+        <v>504</v>
+      </c>
+      <c r="H179" t="s">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>14</v>
+      </c>
+      <c r="J179" t="s">
+        <v>504</v>
+      </c>
+      <c r="K179" t="s">
         <v>31</v>
       </c>
-      <c r="E179" t="s">
-        <v>11</v>
-      </c>
-      <c r="F179" t="s">
-        <v>499</v>
-      </c>
-      <c r="G179" t="s">
-        <v>500</v>
-      </c>
-      <c r="H179" t="s">
-        <v>14</v>
-      </c>
-      <c r="I179" t="s">
-        <v>14</v>
-      </c>
-      <c r="J179" t="s">
-        <v>500</v>
-      </c>
-      <c r="K179" t="s">
-        <v>217</v>
+      <c r="L179" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -10738,10 +10768,10 @@
         <v>20</v>
       </c>
       <c r="F180" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G180" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H180" t="s">
         <v>14</v>
@@ -10750,13 +10780,13 @@
         <v>14</v>
       </c>
       <c r="J180" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K180" t="s">
         <v>31</v>
       </c>
       <c r="L180" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -10776,7 +10806,7 @@
         <v>20</v>
       </c>
       <c r="F181" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G181" t="s">
         <v>506</v>
@@ -10794,45 +10824,33 @@
         <v>31</v>
       </c>
       <c r="L181" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>4108604</v>
+        <v>28979488</v>
       </c>
       <c r="B182" t="s">
-        <v>501</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>502</v>
+        <v>508</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="D182">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E182" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="G182" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="H182" t="s">
-        <v>14</v>
-      </c>
-      <c r="I182" t="s">
-        <v>14</v>
-      </c>
-      <c r="J182" t="s">
-        <v>506</v>
-      </c>
-      <c r="K182" t="s">
-        <v>31</v>
-      </c>
-      <c r="L182" t="s">
-        <v>1015</v>
+        <v>54</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -10852,13 +10870,25 @@
         <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G183" t="s">
         <v>512</v>
       </c>
       <c r="H183" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>14</v>
+      </c>
+      <c r="J183" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K183" t="s">
+        <v>31</v>
+      </c>
+      <c r="L183" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -10878,51 +10908,39 @@
         <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G184" t="s">
         <v>512</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
-      </c>
-      <c r="I184" t="s">
-        <v>14</v>
-      </c>
-      <c r="J184" t="s">
-        <v>1025</v>
-      </c>
-      <c r="K184" t="s">
-        <v>31</v>
-      </c>
-      <c r="L184" t="s">
-        <v>1024</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>28979488</v>
+        <v>299659</v>
       </c>
       <c r="B185" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D185">
-        <v>17</v>
+        <v>744</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F185" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G185" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="H185" t="s">
-        <v>54</v>
+        <v>969</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
@@ -10942,36 +10960,48 @@
         <v>20</v>
       </c>
       <c r="F186" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G186" t="s">
         <v>517</v>
       </c>
       <c r="H186" t="s">
-        <v>969</v>
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>14</v>
+      </c>
+      <c r="J186" t="s">
+        <v>519</v>
+      </c>
+      <c r="K186" t="s">
+        <v>119</v>
+      </c>
+      <c r="L186" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>299659</v>
+        <v>9463268</v>
       </c>
       <c r="B187" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D187">
-        <v>744</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
         <v>20</v>
       </c>
       <c r="F187" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G187" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="H187" t="s">
         <v>14</v>
@@ -10980,13 +11010,10 @@
         <v>14</v>
       </c>
       <c r="J187" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K187" t="s">
-        <v>119</v>
-      </c>
-      <c r="L187" t="s">
-        <v>1026</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -10994,7 +11021,7 @@
         <v>9463268</v>
       </c>
       <c r="B188" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>521</v>
@@ -11006,10 +11033,10 @@
         <v>20</v>
       </c>
       <c r="F188" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G188" t="s">
-        <v>523</v>
+        <v>391</v>
       </c>
       <c r="H188" t="s">
         <v>14</v>
@@ -11018,46 +11045,39 @@
         <v>14</v>
       </c>
       <c r="J188" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K188" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>9463268</v>
-      </c>
-      <c r="B189" t="s">
-        <v>524</v>
+    <row r="189" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="10">
+        <v>30864583</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>527</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D189">
+        <v>528</v>
+      </c>
+      <c r="D189" s="10">
+        <v>111</v>
+      </c>
+      <c r="E189" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E189" t="s">
-        <v>20</v>
-      </c>
-      <c r="F189" t="s">
-        <v>525</v>
-      </c>
-      <c r="G189" t="s">
-        <v>391</v>
-      </c>
-      <c r="H189" t="s">
-        <v>14</v>
-      </c>
-      <c r="I189" t="s">
-        <v>14</v>
-      </c>
-      <c r="J189" t="s">
-        <v>526</v>
-      </c>
-      <c r="K189" t="s">
-        <v>24</v>
-      </c>
+      <c r="F189" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="G189" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="H189" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="I189" s="10"/>
+      <c r="J189" s="10"/>
     </row>
     <row r="190" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="10">
@@ -11076,53 +11096,60 @@
         <v>11</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>793</v>
+        <v>532</v>
       </c>
       <c r="H190" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="I190" s="10"/>
-      <c r="J190" s="10"/>
-    </row>
-    <row r="191" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="10">
-        <v>30864583</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>527</v>
+        <v>14</v>
+      </c>
+      <c r="I190" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J190" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K190" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L190" s="8" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>13212431</v>
+      </c>
+      <c r="B191" t="s">
+        <v>534</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D191" s="10">
-        <v>111</v>
-      </c>
-      <c r="E191" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F191" s="10" t="s">
-        <v>794</v>
-      </c>
-      <c r="G191" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="H191" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I191" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J191" s="10" t="s">
-        <v>1029</v>
-      </c>
-      <c r="K191" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L191" s="8" t="s">
-        <v>1027</v>
+        <v>535</v>
+      </c>
+      <c r="D191">
+        <v>35</v>
+      </c>
+      <c r="E191" t="s">
+        <v>20</v>
+      </c>
+      <c r="F191" t="s">
+        <v>536</v>
+      </c>
+      <c r="G191" t="s">
+        <v>734</v>
+      </c>
+      <c r="H191" t="s">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>14</v>
+      </c>
+      <c r="J191" t="s">
+        <v>537</v>
+      </c>
+      <c r="K191" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -11142,10 +11169,10 @@
         <v>20</v>
       </c>
       <c r="F192" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="G192" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H192" t="s">
         <v>14</v>
@@ -11154,10 +11181,10 @@
         <v>14</v>
       </c>
       <c r="J192" t="s">
-        <v>537</v>
+        <v>1028</v>
       </c>
       <c r="K192" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -11177,7 +11204,7 @@
         <v>20</v>
       </c>
       <c r="F193" t="s">
-        <v>541</v>
+        <v>795</v>
       </c>
       <c r="G193" t="s">
         <v>735</v>
@@ -11189,10 +11216,13 @@
         <v>14</v>
       </c>
       <c r="J193" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="K193" t="s">
-        <v>543</v>
+        <v>29</v>
+      </c>
+      <c r="L193" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -11212,25 +11242,13 @@
         <v>20</v>
       </c>
       <c r="F194" t="s">
-        <v>795</v>
+        <v>548</v>
       </c>
       <c r="G194" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H194" t="s">
-        <v>14</v>
-      </c>
-      <c r="I194" t="s">
-        <v>14</v>
-      </c>
-      <c r="J194" t="s">
-        <v>1032</v>
-      </c>
-      <c r="K194" t="s">
-        <v>29</v>
-      </c>
-      <c r="L194" t="s">
-        <v>1031</v>
+        <v>54</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -11250,10 +11268,10 @@
         <v>20</v>
       </c>
       <c r="F195" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G195" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H195" t="s">
         <v>54</v>
@@ -11261,51 +11279,63 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>13212431</v>
+        <v>10357823</v>
       </c>
       <c r="B196" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="D196">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E196" t="s">
         <v>20</v>
       </c>
       <c r="F196" t="s">
-        <v>549</v>
+        <v>796</v>
       </c>
       <c r="G196" t="s">
-        <v>735</v>
+        <v>553</v>
       </c>
       <c r="H196" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I196" t="s">
+        <v>14</v>
+      </c>
+      <c r="J196" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K196" t="s">
+        <v>119</v>
+      </c>
+      <c r="L196" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>10357823</v>
+        <v>4414648</v>
       </c>
       <c r="B197" t="s">
-        <v>550</v>
+        <v>746</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D197">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E197" t="s">
         <v>20</v>
       </c>
       <c r="F197" t="s">
-        <v>796</v>
+        <v>1035</v>
       </c>
       <c r="G197" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="H197" t="s">
         <v>14</v>
@@ -11314,36 +11344,36 @@
         <v>14</v>
       </c>
       <c r="J197" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="K197" t="s">
         <v>119</v>
       </c>
       <c r="L197" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>4414648</v>
+        <v>2822005</v>
       </c>
       <c r="B198" t="s">
-        <v>746</v>
+        <v>562</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D198">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="E198" t="s">
         <v>20</v>
       </c>
       <c r="F198" t="s">
-        <v>1035</v>
+        <v>564</v>
       </c>
       <c r="G198" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="H198" t="s">
         <v>14</v>
@@ -11352,13 +11382,13 @@
         <v>14</v>
       </c>
       <c r="J198" t="s">
-        <v>1037</v>
+        <v>1022</v>
       </c>
       <c r="K198" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="L198" t="s">
-        <v>1036</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -11378,10 +11408,10 @@
         <v>20</v>
       </c>
       <c r="F199" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G199" t="s">
-        <v>568</v>
+        <v>418</v>
       </c>
       <c r="H199" t="s">
         <v>14</v>
@@ -11390,13 +11420,13 @@
         <v>14</v>
       </c>
       <c r="J199" t="s">
-        <v>1022</v>
+        <v>418</v>
       </c>
       <c r="K199" t="s">
-        <v>79</v>
+        <v>995</v>
       </c>
       <c r="L199" t="s">
-        <v>1021</v>
+        <v>992</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -11416,10 +11446,10 @@
         <v>20</v>
       </c>
       <c r="F200" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G200" t="s">
-        <v>418</v>
+        <v>568</v>
       </c>
       <c r="H200" t="s">
         <v>14</v>
@@ -11428,13 +11458,13 @@
         <v>14</v>
       </c>
       <c r="J200" t="s">
-        <v>418</v>
+        <v>568</v>
       </c>
       <c r="K200" t="s">
-        <v>995</v>
+        <v>119</v>
       </c>
       <c r="L200" t="s">
-        <v>992</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -11454,51 +11484,48 @@
         <v>20</v>
       </c>
       <c r="F201" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G201" t="s">
-        <v>568</v>
+        <v>418</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
-      </c>
-      <c r="I201" t="s">
-        <v>14</v>
-      </c>
-      <c r="J201" t="s">
-        <v>568</v>
-      </c>
-      <c r="K201" t="s">
-        <v>119</v>
-      </c>
-      <c r="L201" t="s">
-        <v>1023</v>
+        <v>877</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>2822005</v>
+        <v>2190161</v>
       </c>
       <c r="B202" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="D202">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="E202" t="s">
         <v>20</v>
       </c>
       <c r="F202" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="G202" t="s">
-        <v>418</v>
+        <v>575</v>
       </c>
       <c r="H202" t="s">
-        <v>877</v>
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>14</v>
+      </c>
+      <c r="J202" t="s">
+        <v>573</v>
+      </c>
+      <c r="K202" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -11518,22 +11545,13 @@
         <v>20</v>
       </c>
       <c r="F203" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G203" t="s">
         <v>575</v>
       </c>
       <c r="H203" t="s">
-        <v>14</v>
-      </c>
-      <c r="I203" t="s">
-        <v>14</v>
-      </c>
-      <c r="J203" t="s">
-        <v>573</v>
-      </c>
-      <c r="K203" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -11553,51 +11571,63 @@
         <v>20</v>
       </c>
       <c r="F204" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G204" t="s">
         <v>575</v>
       </c>
       <c r="H204" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>14</v>
+      </c>
+      <c r="J204" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K204" t="s">
+        <v>119</v>
+      </c>
+      <c r="L204" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>2190161</v>
+        <v>23927887</v>
       </c>
       <c r="B205" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="D205">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="E205" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="G205" t="s">
-        <v>575</v>
+        <v>736</v>
       </c>
       <c r="H205" t="s">
         <v>14</v>
       </c>
       <c r="I205" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J205" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="K205" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
       <c r="L205" t="s">
-        <v>1038</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -11617,48 +11647,48 @@
         <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G206" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H206" t="s">
         <v>14</v>
       </c>
       <c r="I206" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="J206" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="K206" t="s">
-        <v>270</v>
+        <v>1041</v>
       </c>
       <c r="L206" t="s">
-        <v>1084</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>23927887</v>
+        <v>31091242</v>
       </c>
       <c r="B207" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="D207">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
         <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G207" t="s">
-        <v>737</v>
+        <v>587</v>
       </c>
       <c r="H207" t="s">
         <v>14</v>
@@ -11667,13 +11697,10 @@
         <v>14</v>
       </c>
       <c r="J207" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="K207" t="s">
-        <v>1041</v>
-      </c>
-      <c r="L207" t="s">
-        <v>1042</v>
+        <v>826</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -11693,10 +11720,10 @@
         <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G208" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H208" t="s">
         <v>14</v>
@@ -11705,33 +11732,33 @@
         <v>14</v>
       </c>
       <c r="J208" t="s">
-        <v>1045</v>
+        <v>589</v>
       </c>
       <c r="K208" t="s">
-        <v>826</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>31091242</v>
+        <v>4956822</v>
       </c>
       <c r="B209" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D209">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F209" t="s">
-        <v>588</v>
+        <v>879</v>
       </c>
       <c r="G209" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H209" t="s">
         <v>14</v>
@@ -11740,10 +11767,10 @@
         <v>14</v>
       </c>
       <c r="J209" t="s">
-        <v>589</v>
+        <v>878</v>
       </c>
       <c r="K209" t="s">
-        <v>1046</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
@@ -11763,7 +11790,7 @@
         <v>20</v>
       </c>
       <c r="F210" t="s">
-        <v>879</v>
+        <v>594</v>
       </c>
       <c r="G210" t="s">
         <v>593</v>
@@ -11775,33 +11802,33 @@
         <v>14</v>
       </c>
       <c r="J210" t="s">
-        <v>878</v>
+        <v>1048</v>
       </c>
       <c r="K210" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>4956822</v>
+        <v>10120709</v>
       </c>
       <c r="B211" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D211">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E211" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>594</v>
+        <v>798</v>
       </c>
       <c r="G211" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="H211" t="s">
         <v>14</v>
@@ -11810,13 +11837,16 @@
         <v>14</v>
       </c>
       <c r="J211" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="K211" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="L211" s="9" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>10120709</v>
       </c>
@@ -11833,10 +11863,10 @@
         <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G212" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H212" t="s">
         <v>14</v>
@@ -11845,13 +11875,13 @@
         <v>14</v>
       </c>
       <c r="J212" t="s">
-        <v>1049</v>
+        <v>600</v>
       </c>
       <c r="K212" t="s">
         <v>124</v>
       </c>
-      <c r="L212" s="9" t="s">
-        <v>1050</v>
+      <c r="L212" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
@@ -11871,10 +11901,10 @@
         <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>797</v>
+        <v>875</v>
       </c>
       <c r="G213" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H213" t="s">
         <v>14</v>
@@ -11883,13 +11913,13 @@
         <v>14</v>
       </c>
       <c r="J213" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K213" t="s">
         <v>124</v>
       </c>
       <c r="L213" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -11909,178 +11939,187 @@
         <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>875</v>
-      </c>
-      <c r="G214" t="s">
-        <v>602</v>
+        <v>876</v>
       </c>
       <c r="H214" t="s">
-        <v>14</v>
-      </c>
-      <c r="I214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J214" t="s">
-        <v>602</v>
-      </c>
-      <c r="K214" t="s">
-        <v>124</v>
-      </c>
-      <c r="L214" t="s">
-        <v>1051</v>
+        <v>877</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>10120709</v>
+        <v>25454734</v>
       </c>
       <c r="B215" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="D215">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E215" t="s">
         <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>876</v>
+        <v>1053</v>
+      </c>
+      <c r="G215" t="s">
+        <v>608</v>
       </c>
       <c r="H215" t="s">
-        <v>877</v>
+        <v>969</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>6608795</v>
+        <v>25454734</v>
       </c>
       <c r="B216" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D216">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="E216" t="s">
         <v>11</v>
       </c>
+      <c r="F216" t="s">
+        <v>609</v>
+      </c>
+      <c r="G216" t="s">
+        <v>610</v>
+      </c>
+      <c r="H216" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>25454734</v>
+        <v>42482326</v>
       </c>
       <c r="B217" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D217">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F217" t="s">
-        <v>1053</v>
+        <v>613</v>
       </c>
       <c r="G217" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="H217" t="s">
-        <v>969</v>
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>14</v>
+      </c>
+      <c r="J217" t="s">
+        <v>614</v>
+      </c>
+      <c r="K217" t="s">
+        <v>31</v>
+      </c>
+      <c r="L217" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>25454734</v>
+        <v>42482326</v>
       </c>
       <c r="B218" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D218">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E218" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F218" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="G218" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="H218" t="s">
-        <v>877</v>
+        <v>14</v>
+      </c>
+      <c r="I218" t="s">
+        <v>14</v>
+      </c>
+      <c r="J218" t="s">
+        <v>616</v>
+      </c>
+      <c r="K218" t="s">
+        <v>44</v>
+      </c>
+      <c r="L218" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>42482326</v>
+        <v>21300924</v>
       </c>
       <c r="B219" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D219">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E219" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="G219" t="s">
-        <v>614</v>
+        <v>69</v>
       </c>
       <c r="H219" t="s">
-        <v>14</v>
-      </c>
-      <c r="I219" t="s">
-        <v>14</v>
-      </c>
-      <c r="J219" t="s">
-        <v>614</v>
-      </c>
-      <c r="K219" t="s">
-        <v>31</v>
-      </c>
-      <c r="L219" t="s">
-        <v>1054</v>
+        <v>969</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>42482326</v>
+        <v>21300924</v>
       </c>
       <c r="B220" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D220">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E220" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="G220" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="H220" t="s">
         <v>14</v>
@@ -12089,13 +12128,13 @@
         <v>14</v>
       </c>
       <c r="J220" t="s">
-        <v>616</v>
+        <v>1055</v>
       </c>
       <c r="K220" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="L220" t="s">
-        <v>1030</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
@@ -12115,36 +12154,48 @@
         <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G221" t="s">
         <v>69</v>
       </c>
       <c r="H221" t="s">
-        <v>969</v>
+        <v>14</v>
+      </c>
+      <c r="I221" t="s">
+        <v>14</v>
+      </c>
+      <c r="J221" t="s">
+        <v>622</v>
+      </c>
+      <c r="K221" t="s">
+        <v>124</v>
+      </c>
+      <c r="L221" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>21300924</v>
+        <v>3944825</v>
       </c>
       <c r="B222" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="D222">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E222" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F222" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="G222" t="s">
-        <v>622</v>
+        <v>738</v>
       </c>
       <c r="H222" t="s">
         <v>14</v>
@@ -12153,36 +12204,33 @@
         <v>14</v>
       </c>
       <c r="J222" t="s">
-        <v>1055</v>
+        <v>627</v>
       </c>
       <c r="K222" t="s">
-        <v>124</v>
-      </c>
-      <c r="L222" t="s">
-        <v>1056</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>21300924</v>
+        <v>3944825</v>
       </c>
       <c r="B223" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="D223">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F223" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="G223" t="s">
-        <v>69</v>
+        <v>739</v>
       </c>
       <c r="H223" t="s">
         <v>14</v>
@@ -12191,36 +12239,33 @@
         <v>14</v>
       </c>
       <c r="J223" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="K223" t="s">
-        <v>124</v>
-      </c>
-      <c r="L223" t="s">
-        <v>1057</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>3944825</v>
+        <v>43585019</v>
       </c>
       <c r="B224" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D224">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E224" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="G224" t="s">
-        <v>738</v>
+        <v>632</v>
       </c>
       <c r="H224" t="s">
         <v>14</v>
@@ -12229,33 +12274,36 @@
         <v>14</v>
       </c>
       <c r="J224" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="K224" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="L224" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>3944825</v>
+        <v>43585019</v>
       </c>
       <c r="B225" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D225">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E225" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="G225" t="s">
-        <v>739</v>
+        <v>634</v>
       </c>
       <c r="H225" t="s">
         <v>14</v>
@@ -12264,208 +12312,199 @@
         <v>14</v>
       </c>
       <c r="J225" t="s">
-        <v>627</v>
+        <v>1059</v>
       </c>
       <c r="K225" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="L225" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>43585019</v>
+        <v>5552833</v>
       </c>
       <c r="B226" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="D226">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E226" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F226" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="G226" t="s">
-        <v>632</v>
+        <v>734</v>
       </c>
       <c r="H226" t="s">
-        <v>14</v>
-      </c>
-      <c r="I226" t="s">
-        <v>14</v>
-      </c>
-      <c r="J226" t="s">
-        <v>632</v>
-      </c>
-      <c r="K226" t="s">
-        <v>60</v>
-      </c>
-      <c r="L226" t="s">
-        <v>1058</v>
+        <v>54</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>43585019</v>
+        <v>5552833</v>
       </c>
       <c r="B227" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="D227">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E227" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F227" t="s">
-        <v>633</v>
+        <v>782</v>
       </c>
       <c r="G227" t="s">
-        <v>634</v>
+        <v>741</v>
       </c>
       <c r="H227" t="s">
-        <v>14</v>
-      </c>
-      <c r="I227" t="s">
-        <v>14</v>
-      </c>
-      <c r="J227" t="s">
-        <v>1059</v>
-      </c>
-      <c r="K227" t="s">
-        <v>60</v>
-      </c>
-      <c r="L227" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A228">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="11">
         <v>5552833</v>
       </c>
-      <c r="B228" t="s">
-        <v>638</v>
-      </c>
-      <c r="C228" s="4" t="s">
+      <c r="B228" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="C228" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="11">
         <v>26</v>
       </c>
-      <c r="E228" t="s">
-        <v>20</v>
-      </c>
-      <c r="F228" t="s">
-        <v>640</v>
-      </c>
-      <c r="G228" t="s">
-        <v>734</v>
-      </c>
-      <c r="H228" t="s">
+      <c r="E228" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F228" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="G228" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="H228" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="I228" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="J228" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="K228" s="11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="11">
+        <v>5552833</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="D229" s="11">
+        <v>26</v>
+      </c>
+      <c r="E229" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F229" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="G229" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="H229" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I229" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="J229" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="K229" s="11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>12998568</v>
+      </c>
+      <c r="B230" t="s">
+        <v>646</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D230">
+        <v>26</v>
+      </c>
+      <c r="E230" t="s">
+        <v>20</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G230" t="s">
+        <v>87</v>
+      </c>
+      <c r="H230" t="s">
+        <v>14</v>
+      </c>
+      <c r="I230" t="s">
+        <v>14</v>
+      </c>
+      <c r="J230" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K230" t="s">
+        <v>92</v>
+      </c>
+      <c r="L230" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>12998568</v>
+      </c>
+      <c r="B231" t="s">
+        <v>648</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D231">
+        <v>26</v>
+      </c>
+      <c r="E231" t="s">
+        <v>20</v>
+      </c>
+      <c r="F231" t="s">
+        <v>649</v>
+      </c>
+      <c r="G231" t="s">
+        <v>81</v>
+      </c>
+      <c r="H231" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A229">
-        <v>5552833</v>
-      </c>
-      <c r="B229" t="s">
-        <v>641</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="D229">
-        <v>26</v>
-      </c>
-      <c r="E229" t="s">
-        <v>20</v>
-      </c>
-      <c r="F229" t="s">
-        <v>782</v>
-      </c>
-      <c r="G229" t="s">
-        <v>741</v>
-      </c>
-      <c r="H229" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="11">
-        <v>5552833</v>
-      </c>
-      <c r="B230" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="C230" s="13" t="s">
-        <v>639</v>
-      </c>
-      <c r="D230" s="11">
-        <v>26</v>
-      </c>
-      <c r="E230" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F230" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="G230" s="11" t="s">
-        <v>807</v>
-      </c>
-      <c r="H230" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="I230" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="J230" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="K230" s="11" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="11">
-        <v>5552833</v>
-      </c>
-      <c r="B231" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>639</v>
-      </c>
-      <c r="D231" s="11">
-        <v>26</v>
-      </c>
-      <c r="E231" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F231" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="G231" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="H231" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I231" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="J231" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="K231" s="11" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -12473,7 +12512,7 @@
         <v>12998568</v>
       </c>
       <c r="B232" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>647</v>
@@ -12485,25 +12524,13 @@
         <v>20</v>
       </c>
       <c r="F232" t="s">
-        <v>1062</v>
+        <v>650</v>
       </c>
       <c r="G232" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H232" t="s">
-        <v>14</v>
-      </c>
-      <c r="I232" t="s">
-        <v>14</v>
-      </c>
-      <c r="J232" t="s">
-        <v>1061</v>
-      </c>
-      <c r="K232" t="s">
-        <v>92</v>
-      </c>
-      <c r="L232" t="s">
-        <v>1063</v>
+        <v>54</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -12523,10 +12550,10 @@
         <v>20</v>
       </c>
       <c r="F233" t="s">
-        <v>649</v>
+        <v>1064</v>
       </c>
       <c r="G233" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H233" t="s">
         <v>54</v>
@@ -12549,36 +12576,36 @@
         <v>20</v>
       </c>
       <c r="F234" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="G234" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H234" t="s">
-        <v>54</v>
+        <v>969</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>12998568</v>
+        <v>6821887</v>
       </c>
       <c r="B235" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="D235">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E235" t="s">
         <v>20</v>
       </c>
       <c r="F235" t="s">
-        <v>1064</v>
+        <v>656</v>
       </c>
       <c r="G235" t="s">
-        <v>85</v>
+        <v>743</v>
       </c>
       <c r="H235" t="s">
         <v>54</v>
@@ -12586,54 +12613,66 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>12998568</v>
+        <v>1463284</v>
       </c>
       <c r="B236" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="D236">
-        <v>26</v>
+        <v>460</v>
       </c>
       <c r="E236" t="s">
         <v>20</v>
       </c>
       <c r="F236" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="G236" t="s">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="H236" t="s">
-        <v>969</v>
+        <v>54</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>6821887</v>
+        <v>1463284</v>
       </c>
       <c r="B237" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D237">
-        <v>21</v>
+        <v>460</v>
       </c>
       <c r="E237" t="s">
         <v>20</v>
       </c>
       <c r="F237" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="G237" t="s">
-        <v>743</v>
+        <v>367</v>
       </c>
       <c r="H237" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I237" t="s">
+        <v>14</v>
+      </c>
+      <c r="J237" t="s">
+        <v>367</v>
+      </c>
+      <c r="K237" t="s">
+        <v>92</v>
+      </c>
+      <c r="L237" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
@@ -12641,7 +12680,7 @@
         <v>1463284</v>
       </c>
       <c r="B238" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>658</v>
@@ -12653,13 +12692,25 @@
         <v>20</v>
       </c>
       <c r="F238" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="G238" t="s">
-        <v>364</v>
+        <v>744</v>
       </c>
       <c r="H238" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="I238" t="s">
+        <v>14</v>
+      </c>
+      <c r="J238" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K238" t="s">
+        <v>31</v>
+      </c>
+      <c r="L238" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -12679,7 +12730,7 @@
         <v>20</v>
       </c>
       <c r="F239" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="G239" t="s">
         <v>367</v>
@@ -12694,10 +12745,10 @@
         <v>367</v>
       </c>
       <c r="K239" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="L239" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
@@ -12717,10 +12768,10 @@
         <v>20</v>
       </c>
       <c r="F240" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="G240" t="s">
-        <v>744</v>
+        <v>367</v>
       </c>
       <c r="H240" t="s">
         <v>14</v>
@@ -12729,36 +12780,36 @@
         <v>14</v>
       </c>
       <c r="J240" t="s">
-        <v>1065</v>
+        <v>367</v>
       </c>
       <c r="K240" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="L240" t="s">
-        <v>1066</v>
+        <v>977</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>1463284</v>
+        <v>5759925</v>
       </c>
       <c r="B241" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="D241">
-        <v>460</v>
+        <v>32</v>
       </c>
       <c r="E241" t="s">
         <v>20</v>
       </c>
       <c r="F241" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="G241" t="s">
-        <v>367</v>
+        <v>481</v>
       </c>
       <c r="H241" t="s">
         <v>14</v>
@@ -12767,36 +12818,33 @@
         <v>14</v>
       </c>
       <c r="J241" t="s">
-        <v>367</v>
+        <v>481</v>
       </c>
       <c r="K241" t="s">
-        <v>31</v>
-      </c>
-      <c r="L241" t="s">
-        <v>972</v>
+        <v>637</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>1463284</v>
+        <v>5759925</v>
       </c>
       <c r="B242" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="D242">
-        <v>460</v>
+        <v>32</v>
       </c>
       <c r="E242" t="s">
         <v>20</v>
       </c>
       <c r="F242" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="G242" t="s">
-        <v>367</v>
+        <v>670</v>
       </c>
       <c r="H242" t="s">
         <v>14</v>
@@ -12805,13 +12853,10 @@
         <v>14</v>
       </c>
       <c r="J242" t="s">
-        <v>367</v>
+        <v>670</v>
       </c>
       <c r="K242" t="s">
-        <v>92</v>
-      </c>
-      <c r="L242" t="s">
-        <v>977</v>
+        <v>637</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -12831,7 +12876,7 @@
         <v>20</v>
       </c>
       <c r="F243" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="G243" t="s">
         <v>481</v>
@@ -12846,7 +12891,10 @@
         <v>481</v>
       </c>
       <c r="K243" t="s">
-        <v>637</v>
+        <v>44</v>
+      </c>
+      <c r="L243" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -12866,7 +12914,7 @@
         <v>20</v>
       </c>
       <c r="F244" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="G244" t="s">
         <v>670</v>
@@ -12878,10 +12926,13 @@
         <v>14</v>
       </c>
       <c r="J244" t="s">
-        <v>670</v>
+        <v>1067</v>
       </c>
       <c r="K244" t="s">
-        <v>637</v>
+        <v>44</v>
+      </c>
+      <c r="L244" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -12889,7 +12940,7 @@
         <v>5759925</v>
       </c>
       <c r="B245" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>667</v>
@@ -12901,7 +12952,7 @@
         <v>20</v>
       </c>
       <c r="F245" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="G245" t="s">
         <v>481</v>
@@ -12916,33 +12967,33 @@
         <v>481</v>
       </c>
       <c r="K245" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="L245" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>5759925</v>
+        <v>11928199</v>
       </c>
       <c r="B246" t="s">
-        <v>666</v>
+        <v>750</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>667</v>
+        <v>751</v>
       </c>
       <c r="D246">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E246" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F246" t="s">
-        <v>672</v>
+        <v>752</v>
       </c>
       <c r="G246" t="s">
-        <v>670</v>
+        <v>755</v>
       </c>
       <c r="H246" t="s">
         <v>14</v>
@@ -12951,36 +13002,36 @@
         <v>14</v>
       </c>
       <c r="J246" t="s">
-        <v>1067</v>
+        <v>756</v>
       </c>
       <c r="K246" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="L246" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>5759925</v>
+        <v>11928199</v>
       </c>
       <c r="B247" t="s">
-        <v>674</v>
+        <v>750</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>667</v>
+        <v>751</v>
       </c>
       <c r="D247">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E247" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F247" t="s">
-        <v>676</v>
+        <v>753</v>
       </c>
       <c r="G247" t="s">
-        <v>481</v>
+        <v>754</v>
       </c>
       <c r="H247" t="s">
         <v>14</v>
@@ -12989,36 +13040,36 @@
         <v>14</v>
       </c>
       <c r="J247" t="s">
-        <v>481</v>
+        <v>756</v>
       </c>
       <c r="K247" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="L247" t="s">
-        <v>997</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>11928199</v>
+        <v>5155226</v>
       </c>
       <c r="B248" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="D248">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E248" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F248" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="G248" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="H248" t="s">
         <v>14</v>
@@ -13027,36 +13078,33 @@
         <v>14</v>
       </c>
       <c r="J248" t="s">
-        <v>756</v>
+        <v>385</v>
       </c>
       <c r="K248" t="s">
-        <v>124</v>
-      </c>
-      <c r="L248" t="s">
-        <v>1069</v>
+        <v>637</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>11928199</v>
+        <v>5155226</v>
       </c>
       <c r="B249" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="D249">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E249" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F249" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="G249" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="H249" t="s">
         <v>14</v>
@@ -13065,13 +13113,13 @@
         <v>14</v>
       </c>
       <c r="J249" t="s">
-        <v>756</v>
+        <v>1071</v>
       </c>
       <c r="K249" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="L249" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -13091,10 +13139,10 @@
         <v>20</v>
       </c>
       <c r="F250" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="G250" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="H250" t="s">
         <v>14</v>
@@ -13103,10 +13151,10 @@
         <v>14</v>
       </c>
       <c r="J250" t="s">
-        <v>385</v>
+        <v>767</v>
       </c>
       <c r="K250" t="s">
-        <v>637</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -13126,10 +13174,10 @@
         <v>20</v>
       </c>
       <c r="F251" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="G251" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="H251" t="s">
         <v>14</v>
@@ -13138,162 +13186,162 @@
         <v>14</v>
       </c>
       <c r="J251" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="K251" t="s">
         <v>105</v>
       </c>
       <c r="L251" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A252">
-        <v>5155226</v>
-      </c>
-      <c r="B252" t="s">
-        <v>760</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="D252">
-        <v>39</v>
-      </c>
-      <c r="E252" t="s">
-        <v>20</v>
-      </c>
-      <c r="F252" t="s">
-        <v>765</v>
-      </c>
-      <c r="G252" t="s">
-        <v>766</v>
-      </c>
-      <c r="H252" t="s">
-        <v>14</v>
-      </c>
-      <c r="I252" t="s">
-        <v>14</v>
-      </c>
-      <c r="J252" t="s">
-        <v>767</v>
-      </c>
-      <c r="K252" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A253">
-        <v>5155226</v>
-      </c>
-      <c r="B253" t="s">
-        <v>760</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="D253">
-        <v>39</v>
-      </c>
-      <c r="E253" t="s">
-        <v>20</v>
-      </c>
-      <c r="F253" t="s">
-        <v>768</v>
-      </c>
-      <c r="G253" t="s">
-        <v>766</v>
-      </c>
-      <c r="H253" t="s">
-        <v>14</v>
-      </c>
-      <c r="I253" t="s">
-        <v>14</v>
-      </c>
-      <c r="J253" t="s">
-        <v>1073</v>
-      </c>
-      <c r="K253" t="s">
-        <v>105</v>
-      </c>
-      <c r="L253" t="s">
         <v>1074</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="11">
+        <v>32143633</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="D252" s="11">
+        <v>19</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="G252" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="H252" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I252" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="J252" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="K252" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="L252" s="11" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="11">
+        <v>32143633</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="D253" s="11">
+        <v>19</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F253" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="G253" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="H253" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I253" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="J253" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="K253" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="L253" s="11" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="254" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="11">
-        <v>32143633</v>
+        <v>10827872</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>828</v>
+        <v>789</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="D254" s="11">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F254" s="11" t="s">
-        <v>811</v>
-      </c>
-      <c r="G254" s="12" t="s">
-        <v>813</v>
+        <v>791</v>
+      </c>
+      <c r="F254" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="G254" s="11" t="s">
+        <v>825</v>
       </c>
       <c r="H254" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I254" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="J254" s="12" t="s">
-        <v>817</v>
+        <v>806</v>
+      </c>
+      <c r="J254" s="11" t="s">
+        <v>825</v>
       </c>
       <c r="K254" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="L254" s="11" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="255" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="11">
-        <v>32143633</v>
+        <v>10827872</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="D255" s="11">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="E255" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F255" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="G255" s="12" t="s">
-        <v>816</v>
+        <v>11</v>
+      </c>
+      <c r="F255" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="G255" s="11" t="s">
+        <v>823</v>
       </c>
       <c r="H255" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I255" s="11" t="s">
-        <v>815</v>
+        <v>14</v>
       </c>
       <c r="J255" s="12" t="s">
-        <v>831</v>
-      </c>
-      <c r="K255" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="L255" s="11" t="s">
-        <v>830</v>
+        <v>822</v>
+      </c>
+      <c r="K255" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L255" s="12" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="256" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13310,13 +13358,13 @@
         <v>174</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>791</v>
+        <v>11</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G256" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H256" s="11" t="s">
         <v>14</v>
@@ -13325,86 +13373,14 @@
         <v>806</v>
       </c>
       <c r="J256" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K256" s="11" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="257" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="11">
-        <v>10827872</v>
-      </c>
-      <c r="B257" s="11" t="s">
-        <v>789</v>
-      </c>
-      <c r="C257" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="D257" s="11">
-        <v>174</v>
-      </c>
-      <c r="E257" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F257" s="12" t="s">
-        <v>820</v>
-      </c>
-      <c r="G257" s="11" t="s">
-        <v>823</v>
-      </c>
-      <c r="H257" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I257" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J257" s="12" t="s">
-        <v>822</v>
-      </c>
-      <c r="K257" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L257" s="12" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="11">
-        <v>10827872</v>
-      </c>
-      <c r="B258" s="11" t="s">
-        <v>789</v>
-      </c>
-      <c r="C258" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="D258" s="11">
-        <v>174</v>
-      </c>
-      <c r="E258" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F258" s="12" t="s">
-        <v>821</v>
-      </c>
-      <c r="G258" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="H258" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I258" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="J258" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="K258" s="11" t="s">
-        <v>826</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="F1:F256" xr:uid="{848215C8-C22E-490A-BCA7-B6B3B67D2ED5}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -13430,244 +13406,242 @@
     <hyperlink ref="C45" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="C46" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="C48" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C51" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C52" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C55" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C5" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C23" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C22" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C24" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C25" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C32" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C44" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C49" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C54" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C56" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C33" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C34" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C35" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C27" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C28" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C6" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C7" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C8" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C9" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C12" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C14" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C15" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C20" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C53" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C36" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C65" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C72" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C74" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C76" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C78" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C82" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C84" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C86" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C87" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C90" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C91" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C93" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C95" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C100" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C102" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C104" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C107" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C108" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C111" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C115" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C117" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C119" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C121" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C123" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C125" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C130" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C131" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C134" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C136" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C137" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C141" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C143" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C144" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C146" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C151" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C154" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C158" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C159" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C160" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C164" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C167" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C169" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C171" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C174" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C176" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C177" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C178" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C180" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C183" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C186" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C188" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C190" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C197" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C198" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C199" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C205" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C206" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C208" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C210" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C212" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C216" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C217" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C219" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="C222" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="C224" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="C226" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="C232" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="C237" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="C67" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="C73" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="C77" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="C80" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="C98" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="C105" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="C110" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="C116" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="C120" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="C122" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="C124" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="C128" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="C132" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="C135" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="C139" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="C145" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="C148" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="C149" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="C156" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="C162" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="C168" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="C173" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="C175" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="C194" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="C209" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="C211" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="C214" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="C243" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="C246" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="C247" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="C238" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="C239" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="C241" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="C242" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="C245" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="C240" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="C244" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="C58" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="C60" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="C66" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="C69" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="C75" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="C79" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="C81" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="C83" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="C85" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="C88" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="C92" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="C94" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="C101" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="C103" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="C127" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="C129" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="C138" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="C140" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="C147" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="C152" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="C155" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="C157" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="C170" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="C172" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="C179" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="C181" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="C191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="C200" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="C213" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="C218" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C220" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="C225" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="C227" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="C61" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="C63" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="C62" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="C64" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="C70" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="C71" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="C89" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="C99" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="C106" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="C109" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="C112" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="C113" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="C114" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="C118" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="C150" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="C153" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="C161" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="C163" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="C165" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="C166" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="C182" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="C184" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="C185" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="C187" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="C189" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="C192" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="C193" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="C195" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="C196" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="C201" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="C202" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="C203" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="C204" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="C207" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="C221" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="C223" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="C229" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="C233" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="C234" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="C235" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="C236" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="C248" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="C249" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="C250" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C251" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="C252" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="C253" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C228" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="C126" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="C68" r:id="rId246" display="https://stackoverflow.com/questions/2883140" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="C256" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="C230" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="C231" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="C254" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="C255" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C257" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="C258" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="C215" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="C96" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="C97" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="C133" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="C37" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C51" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C54" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C4" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C5" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C23" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C22" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C24" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C25" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C32" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C44" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C49" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C53" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C55" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C33" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C34" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C35" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C27" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C28" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C47" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C6" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C7" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C8" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C9" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C12" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C14" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C15" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C20" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C52" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C36" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C64" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C71" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C73" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C75" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C77" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C81" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C83" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C85" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C86" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C89" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C90" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C92" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C94" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C99" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C101" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C103" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C106" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C107" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C110" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C114" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C116" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C118" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C120" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C122" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C124" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C129" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C130" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C133" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C135" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C136" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C140" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C142" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C143" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C145" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C150" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C153" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C157" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C158" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C159" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C163" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C166" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C168" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C170" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C173" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C175" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C176" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C177" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C179" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C182" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C185" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C187" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C189" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C196" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C197" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C198" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C204" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C205" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C207" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C209" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C211" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C215" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C217" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C220" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C222" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C224" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C230" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C235" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C66" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C72" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C76" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C79" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C97" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C104" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C109" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C115" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C119" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C121" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C123" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C127" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C131" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C134" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C138" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C144" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C147" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C148" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C155" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C161" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C167" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C172" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C174" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C193" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C208" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C210" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C213" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C241" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C244" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C245" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C236" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C237" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C239" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C240" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C243" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C238" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C242" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C57" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C59" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C65" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C68" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C74" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C78" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C80" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C82" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C84" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C87" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C91" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C93" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C100" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C102" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C126" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C128" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C137" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C139" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C146" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C151" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C154" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C156" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C169" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C171" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C178" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C180" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C190" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C199" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C212" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C216" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C218" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C223" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C225" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C60" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C62" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C61" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C63" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C69" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C70" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C88" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C98" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C105" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C108" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C111" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C112" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C113" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C117" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C149" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C152" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C160" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C162" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C164" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C165" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C181" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C183" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C184" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C186" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C188" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C191" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C192" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C194" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C195" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C200" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C201" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C202" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C203" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C206" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C219" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C221" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C227" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C231" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C232" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C233" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="C234" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C246" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="C247" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C248" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C249" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C250" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C251" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C226" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="C125" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C67" r:id="rId244" display="https://stackoverflow.com/questions/2883140" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="C254" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C228" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C229" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C252" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="C253" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C255" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="C256" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C214" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C95" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C96" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C132" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="C37" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId259"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId257"/>
 </worksheet>
 </file>
 
